--- a/trend_results/Rivers/RangitawaStreamatusHalcombeoxpond_eca35b02db.xlsx
+++ b/trend_results/Rivers/RangitawaStreamatusHalcombeoxpond_eca35b02db.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W27"/>
+  <dimension ref="A1:W39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.993567209352722</v>
+        <v>0.0064327906472779</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.99965308112455</v>
+        <v>0.00034691887545</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.984961275712943</v>
+        <v>0.015038724287057</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Extremely likely increasing</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -2389,7 +2389,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.928074065172573</v>
+        <v>0.071925934827427</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Very likely increasing</t>
+          <t>Very unlikely increasing</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2903,6 +2903,1094 @@
         </is>
       </c>
       <c r="W27" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Rangitawa Stream at us Halcombe oxpond</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Visual Clarity</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>15</v>
+      </c>
+      <c r="D28" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>1.7744577549994e-05</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.0227272727272727</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.704545454545455</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="K28" t="n">
+        <v>-0.0861933787841553</v>
+      </c>
+      <c r="L28" t="n">
+        <v>-0.116580678873365</v>
+      </c>
+      <c r="M28" t="n">
+        <v>-0.0483691208728972</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-19.7013437220926</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>1811782</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5554501</v>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Rangitawa Stream at us Halcombe oxpond</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Dissolved Oxygen Concentration</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>15</v>
+      </c>
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>9.193391048434311e-09</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.943037974683544</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>7.695</v>
+      </c>
+      <c r="K29" t="n">
+        <v>-0.182625</v>
+      </c>
+      <c r="L29" t="n">
+        <v>-0.244273365201814</v>
+      </c>
+      <c r="M29" t="n">
+        <v>-0.136705306956972</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-2.37329434697856</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely increasing</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>1811782</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5554501</v>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Rangitawa Stream at us Halcombe oxpond</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Dissolved Reactive Phosphorus</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>15</v>
+      </c>
+      <c r="D30" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0.9999835637922569</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.363636363636364</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="K30" t="n">
+        <v>-0.0010498567742194</v>
+      </c>
+      <c r="L30" t="n">
+        <v>-0.0014908163265306</v>
+      </c>
+      <c r="M30" t="n">
+        <v>-0.0006265008576329</v>
+      </c>
+      <c r="N30" t="n">
+        <v>-4.77207624645199</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>1811782</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5554501</v>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Rangitawa Stream at us Halcombe oxpond</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>E. coli</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>15</v>
+      </c>
+      <c r="D31" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0.910588813326388</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.006060606060606</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.745454545454545</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>534</v>
+      </c>
+      <c r="K31" t="n">
+        <v>-13.3027002246322</v>
+      </c>
+      <c r="L31" t="n">
+        <v>-33.7016339522864</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2.29798901419402</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-2.49114236416333</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Very likely improving</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>1811782</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5554501</v>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Rangitawa Stream at us Halcombe oxpond</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Ammoniacal Nitrogen (NH4)</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>15</v>
+      </c>
+      <c r="D32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope based on two censored values</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0.998035301898464</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.563291139240506</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.443037974683544</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>1811782</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5554501</v>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Rangitawa Stream at us Halcombe oxpond</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Nitrite Nitrogen (NO2)</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>15</v>
+      </c>
+      <c r="D33" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>0.939335212048884</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.251612903225806</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.232258064516129</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>-0.0001251284686536</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Very likely improving</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>1811782</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5554501</v>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Rangitawa Stream at us Halcombe oxpond</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>15</v>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0.844001306073796</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.225806451612903</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.6903225806451611</v>
+      </c>
+      <c r="I34" t="n">
+        <v>2</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.1232</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-0.0009177426998678</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>1811782</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5554501</v>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Rangitawa Stream at us Halcombe oxpond</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>15</v>
+      </c>
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0.034722192409548</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.5582822085889571</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>7.13</v>
+      </c>
+      <c r="K35" t="n">
+        <v>-0.008331432481751701</v>
+      </c>
+      <c r="L35" t="n">
+        <v>-0.0181257589506711</v>
+      </c>
+      <c r="M35" t="n">
+        <v>-0.0010931574862058</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-0.116850385438314</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Extremely unlikely increasing</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>1811782</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5554501</v>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Rangitawa Stream at us Halcombe oxpond</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>15</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.963598303906309</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.06666666666666669</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.148</v>
+      </c>
+      <c r="K36" t="n">
+        <v>-0.0012901295133438</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-0.0036770281298027</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.77875709935845e-05</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-0.8717091306377019</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Extremely likely improving</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>1811782</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5554501</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Rangitawa Stream at us Halcombe oxpond</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>15</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.897232358378324</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.751515151515151</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-0.008291389432485301</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-0.0197774950069291</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.0015306907035928</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-0.93161679016689</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>1811782</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5554501</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Rangitawa Stream at us Halcombe oxpond</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>15</v>
+      </c>
+      <c r="D38" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.0254775084621794</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.636363636363636</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.099</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.0019683390808973</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.0002672910185129</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.0035820761482149</v>
+      </c>
+      <c r="N38" t="n">
+        <v>1.98822129383575</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>1811782</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5554501</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Rangitawa Stream at us Halcombe oxpond</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>15</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.981736245420508</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.921212121212121</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-0.149556414922657</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-0.292774408597242</v>
+      </c>
+      <c r="M39" t="n">
+        <v>-0.037320833685513</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-2.3044131729223</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Extremely likely improving</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>1811782</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5554501</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
         <is>
           <t>NTU/FNU</t>
         </is>

--- a/trend_results/Rivers/RangitawaStreamatusHalcombeoxpond_eca35b02db.xlsx
+++ b/trend_results/Rivers/RangitawaStreamatusHalcombeoxpond_eca35b02db.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W39"/>
+  <dimension ref="A1:W37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.66302526433088</v>
+        <v>0.9642845831139299</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.88</v>
+        <v>0.9375</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.33</v>
+        <v>0.345</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0061273560629071</v>
+        <v>0.0294022108843538</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.0436187717848058</v>
+        <v>0.0028826453350945</v>
       </c>
       <c r="M2" t="n">
-        <v>0.041803431922423</v>
+        <v>0.0761707913036624</v>
       </c>
       <c r="N2" t="n">
-        <v>1.8567745645173</v>
+        <v>8.522379966479351</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.0064327906472779</v>
+        <v>0.5</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -676,19 +676,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6.24</v>
+        <v>6.22</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.290864477040816</v>
+        <v>0.0294643824398046</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.560742833069402</v>
+        <v>-0.164670801417162</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.0981526163319567</v>
+        <v>0.425167935022897</v>
       </c>
       <c r="N3" t="n">
-        <v>-4.66128969616693</v>
+        <v>0.473703897746055</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely increasing</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -751,35 +751,35 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.321489977194677</v>
+        <v>0.399267161573061</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.551724137931034</v>
+        <v>0.5344827586206899</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.018</v>
+        <v>0.016</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0004459706959706</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.0011715472293292</v>
+        <v>-0.0011852394543812</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0022196390339046</v>
+        <v>0.0017102183195801</v>
       </c>
       <c r="N4" t="n">
-        <v>2.47761497761498</v>
+        <v>0</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -846,31 +846,31 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.988748728160234</v>
+        <v>0.96284927423649</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0172413793103448</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.758620689655172</v>
+        <v>0.844827586206897</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>470</v>
+        <v>342</v>
       </c>
       <c r="K5" t="n">
-        <v>-85.1861022364217</v>
+        <v>-50.6877551020408</v>
       </c>
       <c r="L5" t="n">
-        <v>-174.833574049979</v>
+        <v>-87.29201290837069</v>
       </c>
       <c r="M5" t="n">
-        <v>-21.3572151217742</v>
+        <v>-3.36048049585657</v>
       </c>
       <c r="N5" t="n">
-        <v>-18.124702603494</v>
+        <v>-14.8209810239885</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -937,13 +937,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.239701900706285</v>
+        <v>0.0604286539947834</v>
       </c>
       <c r="G6" t="n">
-        <v>0.596153846153846</v>
+        <v>0.60377358490566</v>
       </c>
       <c r="H6" t="n">
-        <v>0.423076923076923</v>
+        <v>0.415094339622642</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -970,7 +970,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1024,14 +1024,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.711724863037877</v>
+        <v>0.945436128617139</v>
       </c>
       <c r="G7" t="n">
-        <v>0.275862068965517</v>
+        <v>0.310344827586207</v>
       </c>
       <c r="H7" t="n">
         <v>0.310344827586207</v>
@@ -1040,19 +1040,19 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0.005</v>
+        <v>0.0045</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>-0.0004009330406147</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.0009269247010157</v>
+        <v>-0.0012350149039747</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>-8.909623124771301</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1119,31 +1119,31 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.438258433870597</v>
+        <v>0.939891323744196</v>
       </c>
       <c r="G8" t="n">
-        <v>0.172413793103448</v>
+        <v>0.206896551724138</v>
       </c>
       <c r="H8" t="n">
-        <v>0.672413793103448</v>
+        <v>0.689655172413793</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0.043</v>
+        <v>0.044</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>-0.0023160658382315</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.0024303129791879</v>
+        <v>-0.007984156930870101</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0031905627321539</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>-5.26378599598076</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1210,31 +1210,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.00034691887545</v>
+        <v>0.020915297282622</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.736842105263158</v>
+        <v>0.719298245614035</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>7.09</v>
+        <v>7.05</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.06590337294284659</v>
+        <v>-0.0425379226037122</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0962056037643097</v>
+        <v>-0.0739756820305689</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.0394476629243527</v>
+        <v>-0.0136001178445944</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.929525711464692</v>
+        <v>-0.6033747887051371</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely increasing</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1297,31 +1297,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.698075876966328</v>
+        <v>0.881546678608342</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0344827586206897</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0.862068965517241</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.133</v>
+        <v>0.107</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.0019986656735634</v>
+        <v>-0.004744809654631</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.0110780762139911</v>
+        <v>-0.0139999769908158</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0039319883245162</v>
+        <v>0.0022001726626119</v>
       </c>
       <c r="N10" t="n">
-        <v>-1.50275614553646</v>
+        <v>-4.43440154638419</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1373,14 +1373,14 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1388,31 +1388,31 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.0753073110790464</v>
+        <v>0.529383796942125</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0689655172413793</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.344827586206897</v>
+        <v>0.827586206896552</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>5</v>
+        <v>0.765</v>
       </c>
       <c r="K11" t="n">
-        <v>0.501717032967033</v>
+        <v>-0.0037363702015752</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>-0.07583693749956109</v>
       </c>
       <c r="M11" t="n">
-        <v>1.17359510685332</v>
+        <v>0.0502368198136643</v>
       </c>
       <c r="N11" t="n">
-        <v>10.0343406593407</v>
+        <v>-0.488414405434677</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -1475,35 +1475,35 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.276043633650743</v>
+        <v>0.5</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.775862068965517</v>
+        <v>0.827586206896552</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.79</v>
+        <v>0.1005</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0100343406593407</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.0207047216039288</v>
+        <v>-0.0041781360915643</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0604221875161822</v>
+        <v>0.0083354342609581</v>
       </c>
       <c r="N12" t="n">
-        <v>1.27016970371401</v>
+        <v>0</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1555,14 +1555,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>5</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1570,31 +1570,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.0429061084580203</v>
+        <v>0.277133918162159</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.758620689655172</v>
+        <v>0.9655172413793101</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.105</v>
+        <v>5.605</v>
       </c>
       <c r="K13" t="n">
-        <v>0.007454081632653</v>
+        <v>0.109476088109662</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>-0.48731902569897</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0140511313423176</v>
+        <v>0.737224528947353</v>
       </c>
       <c r="N13" t="n">
-        <v>7.09912536443149</v>
+        <v>1.95318622853992</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1646,14 +1646,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1661,31 +1661,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.0072200914984469</v>
+        <v>0.037695108071502</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.0344827586206897</v>
       </c>
       <c r="H14" t="n">
-        <v>0.948275862068966</v>
+        <v>0.844827586206897</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J14" t="n">
-        <v>5.83</v>
+        <v>0.3885</v>
       </c>
       <c r="K14" t="n">
-        <v>0.59079951978963</v>
+        <v>-0.032461323238973</v>
       </c>
       <c r="L14" t="n">
-        <v>0.217089522734484</v>
+        <v>-0.06782062938216871</v>
       </c>
       <c r="M14" t="n">
-        <v>0.9589906248804571</v>
+        <v>-0.0022055407626543</v>
       </c>
       <c r="N14" t="n">
-        <v>10.1337825006798</v>
+        <v>-8.35555295726461</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1737,14 +1737,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>10</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1752,31 +1752,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.001840982268842</v>
+        <v>0.455518475775764</v>
       </c>
       <c r="G15" t="n">
-        <v>0.032258064516129</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.790322580645161</v>
+        <v>0.982300884955752</v>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.405</v>
+        <v>6.43</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.0590341501564129</v>
+        <v>-0.0139942528735633</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.1021708676012</v>
+        <v>-0.0946109986101412</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.0240924352465437</v>
+        <v>0.07287777353390031</v>
       </c>
       <c r="N15" t="n">
-        <v>-14.5763333719538</v>
+        <v>-0.217640013585743</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -1843,31 +1843,31 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.015038724287057</v>
+        <v>0.999721640139457</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.972972972972973</v>
+        <v>0.355932203389831</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>6.84</v>
+        <v>0.019</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.104856459330144</v>
+        <v>-0.0010030897165634</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.176559994731562</v>
+        <v>-0.0015014454396324</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.0223045214846966</v>
+        <v>-0.000503552262792</v>
       </c>
       <c r="N16" t="n">
-        <v>-1.53298917149333</v>
+        <v>-5.27941956086033</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Extremely unlikely increasing</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1919,46 +1919,46 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>10</v>
       </c>
       <c r="D17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>0.999971706018539</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.008474576271186401</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.76271186440678</v>
+      </c>
+      <c r="I17" t="n">
         <v>1</v>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>0.960402586181943</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.355932203389831</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
       <c r="J17" t="n">
-        <v>0.02</v>
+        <v>510</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.0005017170329669999</v>
+        <v>-56.1923076923077</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.0010145833962609</v>
+        <v>-80.83827566156489</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>-31.6953366578234</v>
       </c>
       <c r="N17" t="n">
-        <v>-2.50858516483516</v>
+        <v>-11.0180995475113</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -2021,35 +2021,35 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.995316338808672</v>
+        <v>0.0114267148048633</v>
       </c>
       <c r="G18" t="n">
-        <v>0.008474576271186401</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="H18" t="n">
-        <v>0.745762711864407</v>
+        <v>0.342342342342342</v>
       </c>
       <c r="I18" t="n">
         <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>547</v>
+        <v>0.005</v>
       </c>
       <c r="K18" t="n">
-        <v>-38.0673854447439</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>-66.5238935856606</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>-13.5253716982474</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>-6.95930264072101</v>
+        <v>0</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2112,29 +2112,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.0064556000906751</v>
+        <v>0.8595148236032411</v>
       </c>
       <c r="G19" t="n">
-        <v>0.693693693693694</v>
+        <v>0.279661016949153</v>
       </c>
       <c r="H19" t="n">
-        <v>0.315315315315315</v>
+        <v>0.228813559322034</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0.005</v>
+        <v>0.0045</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>-0.0003262084236418</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2192,14 +2192,14 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>10</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -2207,28 +2207,28 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.737601180179972</v>
+        <v>0.589907474956591</v>
       </c>
       <c r="G20" t="n">
-        <v>0.228813559322034</v>
+        <v>0.245762711864407</v>
       </c>
       <c r="H20" t="n">
-        <v>0.245762711864407</v>
+        <v>0.652542372881356</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>0.005</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.0002393115853296</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0001225156018025</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2283,7 +2283,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -2294,35 +2294,35 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.148846570103513</v>
+        <v>0.06835990221140099</v>
       </c>
       <c r="G21" t="n">
-        <v>0.23728813559322</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.677966101694915</v>
+        <v>0.594827586206897</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0985</v>
+        <v>7.09</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>-0.0081640742047511</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>-0.0200686813186814</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0007495847815722001</v>
+        <v>0.001635529237805</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>-0.115149142521172</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very unlikely increasing</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2360,11 +2360,7 @@
           <t>Rang_4a</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2374,7 +2370,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -2385,35 +2381,35 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.071925934827427</v>
+        <v>0.343631276635374</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.09322033898305079</v>
       </c>
       <c r="H22" t="n">
-        <v>0.603448275862069</v>
+        <v>0.813559322033898</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>7.1</v>
+        <v>0.12275</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.0081640742047511</v>
+        <v>0.0007507751294757</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.0214072346593424</v>
+        <v>-0.0004978824416211</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0026533258526108</v>
+        <v>0.0028997152326732</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.114986960630297</v>
+        <v>0.611629433381497</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2422,7 +2418,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Very unlikely increasing</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2451,7 +2447,11 @@
           <t>Rang_4a</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr"/>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2461,7 +2461,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -2476,31 +2476,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.06289958160061709</v>
+        <v>0.770562099125511</v>
       </c>
       <c r="G23" t="n">
-        <v>0.09322033898305079</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0.796610169491525</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.123</v>
+        <v>0.8055</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0018613307892792</v>
+        <v>-0.009983802911609401</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0004993164730006</v>
+        <v>-0.0261338904596406</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0037452676288961</v>
+        <v>0.0100343406593407</v>
       </c>
       <c r="N23" t="n">
-        <v>1.51327706445471</v>
+        <v>-1.23945411689751</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2552,46 +2552,46 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>10</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.678254450991325</v>
+        <v>0.7462238502205349</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0338983050847458</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.271186440677966</v>
+        <v>0.669491525423729</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>5</v>
+        <v>0.102</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>-0.0007308983617762</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.266451824682108</v>
+        <v>-0.002401835037738</v>
       </c>
       <c r="M24" t="n">
-        <v>0.115794496834833</v>
+        <v>0.0011246692737853</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>-0.716567021349288</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2631,7 +2631,7 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2643,7 +2643,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2658,31 +2658,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.271380036677713</v>
+        <v>0.946516319661618</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.8050847457627121</v>
+        <v>0.949152542372881</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.83</v>
+        <v>6.03</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0054948725654261</v>
+        <v>-0.174760765550239</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.0090703780358347</v>
+        <v>-0.328323592340092</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0191600560214675</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0.662032839207966</v>
+        <v>-2.89818848342022</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2734,11 +2734,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -2749,31 +2749,31 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.0146385936142527</v>
+        <v>3.85403728320188e-05</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>0.0222222222222222</v>
       </c>
       <c r="H26" t="n">
-        <v>0.669491525423729</v>
+        <v>0.711111111111111</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0985</v>
+        <v>0.4375</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0030317824377457</v>
+        <v>-0.0759315031982942</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0007983630475407</v>
+        <v>-0.109439915201799</v>
       </c>
       <c r="M26" t="n">
-        <v>0.005324622048042</v>
+        <v>-0.0422954193405753</v>
       </c>
       <c r="N26" t="n">
-        <v>3.07795171344745</v>
+        <v>-17.3557721596101</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -2825,11 +2825,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
@@ -2840,31 +2840,31 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.82249200936122</v>
+        <v>1.84117913104576e-06</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.940677966101695</v>
+        <v>0.9411764705882349</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>6.085</v>
+        <v>7.545</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.084263623822108</v>
+        <v>-0.149556414922657</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.312059076731963</v>
+        <v>-0.196179582678056</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0509442211259009</v>
+        <v>-0.0949502769814128</v>
       </c>
       <c r="N27" t="n">
-        <v>-1.38477606938551</v>
+        <v>-1.98219237803389</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2916,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -2931,31 +2931,31 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.7744577549994e-05</v>
+        <v>0.99999969066473</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0227272727272727</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.704545454545455</v>
+        <v>0.344632768361582</v>
       </c>
       <c r="I28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0.4375</v>
+        <v>0.022</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.0861933787841553</v>
+        <v>-0.0010715132024373</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.116580678873365</v>
+        <v>-0.001462950600801</v>
       </c>
       <c r="M28" t="n">
-        <v>-0.0483691208728972</v>
+        <v>-0.0007205285595939</v>
       </c>
       <c r="N28" t="n">
-        <v>-19.7013437220926</v>
+        <v>-4.87051455653351</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3007,46 +3007,46 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C29" t="n">
         <v>15</v>
       </c>
       <c r="D29" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0.994396717189027</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.0056497175141242</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.751412429378531</v>
+      </c>
+      <c r="I29" t="n">
         <v>1</v>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>9.193391048434311e-09</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0.943037974683544</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
       <c r="J29" t="n">
-        <v>7.695</v>
+        <v>510</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.182625</v>
+        <v>-21.6219603448276</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.244273365201814</v>
+        <v>-39.6489965741049</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.136705306956972</v>
+        <v>-6.7658949234429</v>
       </c>
       <c r="N29" t="n">
-        <v>-2.37329434697856</v>
+        <v>-4.23960006761325</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely increasing</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3098,46 +3098,46 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C30" t="n">
         <v>15</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.9999835637922569</v>
+        <v>0.996449289180749</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>0.5647058823529409</v>
       </c>
       <c r="H30" t="n">
-        <v>0.363636363636364</v>
+        <v>0.441176470588235</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>0.022</v>
+        <v>0.005</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.0010498567742194</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.0014908163265306</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>-0.0006265008576329</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>-4.77207624645199</v>
+        <v>0</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3189,46 +3189,46 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>15</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.910588813326388</v>
+        <v>0.991241307230138</v>
       </c>
       <c r="G31" t="n">
-        <v>0.006060606060606</v>
+        <v>0.269461077844311</v>
       </c>
       <c r="H31" t="n">
-        <v>0.745454545454545</v>
+        <v>0.215568862275449</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>534</v>
+        <v>0.005</v>
       </c>
       <c r="K31" t="n">
-        <v>-13.3027002246322</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>-33.7016339522864</v>
+        <v>-0.0001664268131408</v>
       </c>
       <c r="M31" t="n">
-        <v>2.29798901419402</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>-2.49114236416333</v>
+        <v>0</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3280,7 +3280,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -3291,35 +3291,35 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.998035301898464</v>
+        <v>0.9858994336400621</v>
       </c>
       <c r="G32" t="n">
-        <v>0.563291139240506</v>
+        <v>0.239520958083832</v>
       </c>
       <c r="H32" t="n">
-        <v>0.443037974683544</v>
+        <v>0.6706586826347301</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J32" t="n">
-        <v>0.005</v>
+        <v>0.115</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>-4.98839114995903e-05</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>-0.0021829562961352</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>-0.0433773143474698</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3371,7 +3371,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3382,35 +3382,35 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.939335212048884</v>
+        <v>0.010975828658413</v>
       </c>
       <c r="G33" t="n">
-        <v>0.251612903225806</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.232258064516129</v>
+        <v>0.537142857142857</v>
       </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.005</v>
+        <v>7.13</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>-0.0100022820629849</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.0001251284686536</v>
+        <v>-0.0177307118706766</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>-0.0028561187903539</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>-0.140284460911429</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3448,11 +3448,7 @@
           <t>Rang_4a</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3462,7 +3458,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3477,31 +3473,31 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.844001306073796</v>
+        <v>0.993802964493437</v>
       </c>
       <c r="G34" t="n">
-        <v>0.225806451612903</v>
+        <v>0.0621468926553672</v>
       </c>
       <c r="H34" t="n">
-        <v>0.6903225806451611</v>
+        <v>0.84180790960452</v>
       </c>
       <c r="I34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>0.1232</v>
+        <v>0.144</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>-0.0018199665151142</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.0009177426998678</v>
+        <v>-0.0043024207852837</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>-0.0003745503562463</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>-1.26386563549603</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3510,7 +3506,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3541,7 +3537,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3553,7 +3549,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -3568,31 +3564,31 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.034722192409548</v>
+        <v>0.943140123827505</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.5582822085889571</v>
+        <v>0.740112994350282</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>7.13</v>
+        <v>0.88</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.008331432481751701</v>
+        <v>-0.009996589387540999</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.0181257589506711</v>
+        <v>-0.0201257334207973</v>
       </c>
       <c r="M35" t="n">
-        <v>-0.0010931574862058</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>-0.116850385438314</v>
+        <v>-1.13597606676603</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3601,7 +3597,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Extremely unlikely increasing</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3630,7 +3626,11 @@
           <t>Rang_4a</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr"/>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3640,14 +3640,14 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C36" t="n">
         <v>15</v>
       </c>
       <c r="D36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -3655,31 +3655,31 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.963598303906309</v>
+        <v>0.073672999532694</v>
       </c>
       <c r="G36" t="n">
-        <v>0.06666666666666669</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.8</v>
+        <v>0.615819209039548</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.148</v>
+        <v>0.099</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.0012901295133438</v>
+        <v>0.0013365952453058</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.0036770281298027</v>
+        <v>-0.0001418568869408</v>
       </c>
       <c r="M36" t="n">
-        <v>1.77875709935845e-05</v>
+        <v>0.0026265838502568</v>
       </c>
       <c r="N36" t="n">
-        <v>-0.8717091306377019</v>
+        <v>1.35009620737967</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q36" t="n">
@@ -3731,7 +3731,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3746,31 +3746,31 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.897232358378324</v>
+        <v>0.997512800526755</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.751515151515151</v>
+        <v>0.9209039548022599</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.89</v>
+        <v>6.17</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.008291389432485301</v>
+        <v>-0.16083843956044</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.0197774950069291</v>
+        <v>-0.292587623732891</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0015306907035928</v>
+        <v>-0.0648313955100569</v>
       </c>
       <c r="N37" t="n">
-        <v>-0.93161679016689</v>
+        <v>-2.60678184052576</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q37" t="n">
@@ -3809,188 +3809,6 @@
         </is>
       </c>
       <c r="W37" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Rangitawa Stream at us Halcombe oxpond</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Total Phosphorus</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>15</v>
-      </c>
-      <c r="D38" t="b">
-        <v>0</v>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>0.0254775084621794</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0.636363636363636</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.099</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.0019683390808973</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0.0002672910185129</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.0035820761482149</v>
-      </c>
-      <c r="N38" t="n">
-        <v>1.98822129383575</v>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>Extremely unlikely improving</t>
-        </is>
-      </c>
-      <c r="Q38" t="n">
-        <v>1811782</v>
-      </c>
-      <c r="R38" t="n">
-        <v>5554501</v>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>Manawatu District</t>
-        </is>
-      </c>
-      <c r="T38" t="inlineStr">
-        <is>
-          <t>Rangitīkei-Turakina</t>
-        </is>
-      </c>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>Coastal Rangitikei</t>
-        </is>
-      </c>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>Rang_4a</t>
-        </is>
-      </c>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Rangitawa Stream at us Halcombe oxpond</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Turbidity</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>15</v>
-      </c>
-      <c r="D39" t="b">
-        <v>1</v>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>0.981736245420508</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0.921212121212121</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K39" t="n">
-        <v>-0.149556414922657</v>
-      </c>
-      <c r="L39" t="n">
-        <v>-0.292774408597242</v>
-      </c>
-      <c r="M39" t="n">
-        <v>-0.037320833685513</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-2.3044131729223</v>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>Extremely likely improving</t>
-        </is>
-      </c>
-      <c r="Q39" t="n">
-        <v>1811782</v>
-      </c>
-      <c r="R39" t="n">
-        <v>5554501</v>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>Manawatu District</t>
-        </is>
-      </c>
-      <c r="T39" t="inlineStr">
-        <is>
-          <t>Rangitīkei-Turakina</t>
-        </is>
-      </c>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>Coastal Rangitikei</t>
-        </is>
-      </c>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>Rang_4a</t>
-        </is>
-      </c>
-      <c r="W39" t="inlineStr">
         <is>
           <t>NTU/FNU</t>
         </is>

--- a/trend_results/Rivers/RangitawaStreamatusHalcombeoxpond_eca35b02db.xlsx
+++ b/trend_results/Rivers/RangitawaStreamatusHalcombeoxpond_eca35b02db.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="62">
   <si>
     <t>site name</t>
   </si>
@@ -88,87 +88,84 @@
     <t>Rangitawa Stream at us Halcombe oxpond</t>
   </si>
   <si>
+    <t>Dissolved Oxygen Concentration</t>
+  </si>
+  <si>
+    <t>Dissolved Reactive Phosphorus</t>
+  </si>
+  <si>
+    <t>E. coli</t>
+  </si>
+  <si>
+    <t>Ammoniacal Nitrogen (NH4)</t>
+  </si>
+  <si>
+    <t>Nitrite Nitrogen (NO2)</t>
+  </si>
+  <si>
+    <t>Nitrate Nitrogen (NO3)</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>SIN (Soluble Inorganic nitrogen)</t>
+  </si>
+  <si>
+    <t>Total Nitrogen</t>
+  </si>
+  <si>
+    <t>Total Phosphorus</t>
+  </si>
+  <si>
+    <t>Turbidity</t>
+  </si>
+  <si>
     <t>Visual Clarity</t>
   </si>
   <si>
-    <t>Dissolved Oxygen Concentration</t>
-  </si>
-  <si>
-    <t>Dissolved Reactive Phosphorus</t>
-  </si>
-  <si>
-    <t>E. coli</t>
-  </si>
-  <si>
-    <t>Ammoniacal Nitrogen (NH4)</t>
-  </si>
-  <si>
-    <t>Nitrite Nitrogen (NO2)</t>
-  </si>
-  <si>
-    <t>Nitrate Nitrogen (NO3)</t>
-  </si>
-  <si>
-    <t>pH</t>
-  </si>
-  <si>
-    <t>SIN (Soluble Inorganic nitrogen)</t>
-  </si>
-  <si>
-    <t>Total Nitrogen</t>
-  </si>
-  <si>
-    <t>Total Phosphorus</t>
-  </si>
-  <si>
-    <t>Turbidity</t>
-  </si>
-  <si>
     <t>ok</t>
   </si>
   <si>
-    <t>WARNING: Sen slope based on tied non-censored values</t>
+    <t>WARNING: Sen slope influenced by censored values</t>
   </si>
   <si>
     <t>WARNING: Sen slope based on two censored values</t>
   </si>
   <si>
-    <t>WARNING: Sen slope influenced by censored values</t>
-  </si>
-  <si>
     <t>RepSite</t>
   </si>
   <si>
+    <t>Extremely likely increasing</t>
+  </si>
+  <si>
+    <t>Extremely unlikely improving</t>
+  </si>
+  <si>
+    <t>Likely improving</t>
+  </si>
+  <si>
+    <t>Unlikely improving</t>
+  </si>
+  <si>
     <t>Extremely likely improving</t>
   </si>
   <si>
+    <t>Virtually certain improving</t>
+  </si>
+  <si>
     <t>As likely as not increasing</t>
   </si>
   <si>
     <t>As likely as not improving</t>
   </si>
   <si>
-    <t>Very unlikely improving</t>
+    <t>Likely increasing</t>
   </si>
   <si>
     <t>Very likely improving</t>
   </si>
   <si>
-    <t>Extremely unlikely increasing</t>
-  </si>
-  <si>
-    <t>Likely improving</t>
-  </si>
-  <si>
-    <t>Unlikely improving</t>
-  </si>
-  <si>
-    <t>Extremely unlikely improving</t>
-  </si>
-  <si>
-    <t>Virtually certain improving</t>
-  </si>
-  <si>
     <t>Very unlikely increasing</t>
   </si>
   <si>
@@ -190,19 +187,19 @@
     <t>Rang_4a</t>
   </si>
   <si>
+    <t>g/m3</t>
+  </si>
+  <si>
+    <t>mg/L</t>
+  </si>
+  <si>
+    <t>E. coli/100 mL</t>
+  </si>
+  <si>
+    <t>NTU/FNU</t>
+  </si>
+  <si>
     <t>m</t>
-  </si>
-  <si>
-    <t>g/m3</t>
-  </si>
-  <si>
-    <t>mg/L</t>
-  </si>
-  <si>
-    <t>E. coli/100 mL</t>
-  </si>
-  <si>
-    <t>NTU/FNU</t>
   </si>
 </sst>
 </file>
@@ -560,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W37"/>
+  <dimension ref="A1:W36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -648,44 +645,44 @@
         <v>5</v>
       </c>
       <c r="D2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
         <v>36</v>
       </c>
       <c r="F2">
-        <v>0.9642845831139299</v>
+        <v>0.979084702717378</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.9375</v>
+        <v>0.9649122807017541</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.345</v>
+        <v>6.2</v>
       </c>
       <c r="K2">
-        <v>0.0294022108843538</v>
+        <v>0.329639275433961</v>
       </c>
       <c r="L2">
-        <v>0.0028826453350945</v>
+        <v>0.0702697962795716</v>
       </c>
       <c r="M2">
-        <v>0.0761707913036624</v>
+        <v>0.5149538723135491</v>
       </c>
       <c r="N2">
-        <v>8.522379966479351</v>
+        <v>5.31676250699937</v>
       </c>
       <c r="O2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" t="s">
         <v>40</v>
       </c>
-      <c r="P2" t="s">
-        <v>41</v>
-      </c>
       <c r="Q2">
         <v>1811782</v>
       </c>
@@ -693,19 +690,19 @@
         <v>5554501</v>
       </c>
       <c r="S2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V2" t="s">
+        <v>56</v>
+      </c>
+      <c r="W2" t="s">
         <v>57</v>
-      </c>
-      <c r="W2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -719,43 +716,43 @@
         <v>5</v>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="s">
         <v>36</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>0.0245189930575474</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0.551724137931034</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.22</v>
+        <v>0.016</v>
       </c>
       <c r="K3">
-        <v>0.0294643824398046</v>
+        <v>0.0016452702702702</v>
       </c>
       <c r="L3">
-        <v>-0.164670801417162</v>
+        <v>0.0002605681564665</v>
       </c>
       <c r="M3">
-        <v>0.425167935022897</v>
+        <v>0.0029339014843591</v>
       </c>
       <c r="N3">
-        <v>0.473703897746055</v>
+        <v>10.2829391891892</v>
       </c>
       <c r="O3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q3">
         <v>1811782</v>
@@ -764,19 +761,19 @@
         <v>5554501</v>
       </c>
       <c r="S3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -793,40 +790,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F4">
-        <v>0.399267161573061</v>
+        <v>0.733657599691158</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.5344827586206899</v>
+        <v>0.913793103448276</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.016</v>
+        <v>318.8</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>-16.3217983651226</v>
       </c>
       <c r="L4">
-        <v>-0.0011852394543812</v>
+        <v>-59.9203036712302</v>
       </c>
       <c r="M4">
-        <v>0.0017102183195801</v>
+        <v>24.00772616985</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>-5.11976109320031</v>
       </c>
       <c r="O4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q4">
         <v>1811782</v>
@@ -835,19 +832,19 @@
         <v>5554501</v>
       </c>
       <c r="S4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -861,43 +858,43 @@
         <v>5</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="s">
         <v>36</v>
       </c>
       <c r="F5">
-        <v>0.96284927423649</v>
+        <v>0.16114979793596</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.844827586206897</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>342</v>
+        <v>0.0072109526961336</v>
       </c>
       <c r="K5">
-        <v>-50.6877551020408</v>
+        <v>0.0004798348406028</v>
       </c>
       <c r="L5">
-        <v>-87.29201290837069</v>
+        <v>-0.0004700062411453</v>
       </c>
       <c r="M5">
-        <v>-3.36048049585657</v>
+        <v>0.0019933079889299</v>
       </c>
       <c r="N5">
-        <v>-14.8209810239885</v>
+        <v>6.65425028873296</v>
       </c>
       <c r="O5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q5">
         <v>1811782</v>
@@ -906,19 +903,19 @@
         <v>5554501</v>
       </c>
       <c r="S5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -935,28 +932,28 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F6">
-        <v>0.0604286539947834</v>
+        <v>0.9582048604186461</v>
       </c>
       <c r="G6">
-        <v>0.60377358490566</v>
+        <v>0.379310344827586</v>
       </c>
       <c r="H6">
-        <v>0.415094339622642</v>
+        <v>0.310344827586207</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.005</v>
+        <v>0.003</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>-0.0009421149093332</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -965,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P6" t="s">
         <v>44</v>
@@ -977,19 +974,19 @@
         <v>5554501</v>
       </c>
       <c r="S6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1006,37 +1003,37 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F7">
-        <v>0.945436128617139</v>
+        <v>0.994293732730292</v>
       </c>
       <c r="G7">
-        <v>0.310344827586207</v>
+        <v>0.293103448275862</v>
       </c>
       <c r="H7">
-        <v>0.310344827586207</v>
+        <v>0.603448275862069</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.0045</v>
+        <v>0.0365</v>
       </c>
       <c r="K7">
-        <v>-0.0004009330406147</v>
+        <v>-0.0054424668874172</v>
       </c>
       <c r="L7">
-        <v>-0.0012350149039747</v>
+        <v>-0.0318728029504758</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>-8.909623124771301</v>
+        <v>-14.9108681847047</v>
       </c>
       <c r="O7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P7" t="s">
         <v>45</v>
@@ -1048,19 +1045,19 @@
         <v>5554501</v>
       </c>
       <c r="S7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1077,40 +1074,40 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F8">
-        <v>0.939891323744196</v>
+        <v>0.5</v>
       </c>
       <c r="G8">
-        <v>0.206896551724138</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>0.689655172413793</v>
+        <v>0.785714285714286</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.044</v>
+        <v>7.045</v>
       </c>
       <c r="K8">
-        <v>-0.0023160658382315</v>
+        <v>0.0024948394926994</v>
       </c>
       <c r="L8">
-        <v>-0.007984156930870101</v>
+        <v>-0.0332211958780984</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.019940855323021</v>
       </c>
       <c r="N8">
-        <v>-5.26378599598076</v>
+        <v>0.0354129097615255</v>
       </c>
       <c r="O8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q8">
         <v>1811782</v>
@@ -1119,19 +1116,16 @@
         <v>5554501</v>
       </c>
       <c r="S8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V8" t="s">
-        <v>57</v>
-      </c>
-      <c r="W8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1151,37 +1145,37 @@
         <v>36</v>
       </c>
       <c r="F9">
-        <v>0.020915297282622</v>
+        <v>0.865596628226167</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.719298245614035</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.05</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="K9">
-        <v>-0.0425379226037122</v>
+        <v>-0.004640882554945</v>
       </c>
       <c r="L9">
-        <v>-0.0739756820305689</v>
+        <v>-0.0201469191088883</v>
       </c>
       <c r="M9">
-        <v>-0.0136001178445944</v>
+        <v>0.0012660033344549</v>
       </c>
       <c r="N9">
-        <v>-0.6033747887051371</v>
+        <v>-6.72591674629718</v>
       </c>
       <c r="O9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="Q9">
         <v>1811782</v>
@@ -1190,15 +1184,18 @@
         <v>5554501</v>
       </c>
       <c r="S9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V9" t="s">
+        <v>56</v>
+      </c>
+      <c r="W9" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1219,37 +1216,37 @@
         <v>36</v>
       </c>
       <c r="F10">
-        <v>0.881546678608342</v>
+        <v>0.865596628226167</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.862068965517241</v>
+        <v>0.827586206896552</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.107</v>
+        <v>0.7</v>
       </c>
       <c r="K10">
-        <v>-0.004744809654631</v>
+        <v>-0.0260083636121943</v>
       </c>
       <c r="L10">
-        <v>-0.0139999769908158</v>
+        <v>-0.110377747252747</v>
       </c>
       <c r="M10">
-        <v>0.0022001726626119</v>
+        <v>0.0169738253026639</v>
       </c>
       <c r="N10">
-        <v>-4.43440154638419</v>
+        <v>-3.71548051602775</v>
       </c>
       <c r="O10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P10" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="Q10">
         <v>1811782</v>
@@ -1258,19 +1255,19 @@
         <v>5554501</v>
       </c>
       <c r="S10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V10" t="s">
+        <v>56</v>
+      </c>
+      <c r="W10" t="s">
         <v>57</v>
-      </c>
-      <c r="W10" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1290,7 +1287,7 @@
         <v>36</v>
       </c>
       <c r="F11">
-        <v>0.529383796942125</v>
+        <v>0.588468363120939</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1302,25 +1299,25 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.765</v>
+        <v>0.103</v>
       </c>
       <c r="K11">
-        <v>-0.0037363702015752</v>
+        <v>-0.0001248291182501</v>
       </c>
       <c r="L11">
-        <v>-0.07583693749956109</v>
+        <v>-0.0053018867257201</v>
       </c>
       <c r="M11">
-        <v>0.0502368198136643</v>
+        <v>0.0036788507345771</v>
       </c>
       <c r="N11">
-        <v>-0.488414405434677</v>
+        <v>-0.121193318689485</v>
       </c>
       <c r="O11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P11" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="Q11">
         <v>1811782</v>
@@ -1329,19 +1326,19 @@
         <v>5554501</v>
       </c>
       <c r="S11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V11" t="s">
+        <v>56</v>
+      </c>
+      <c r="W11" t="s">
         <v>57</v>
-      </c>
-      <c r="W11" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1355,40 +1352,40 @@
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F12">
-        <v>0.5</v>
+        <v>0.127068673317536</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.827586206896552</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1005</v>
+        <v>6.075</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.325269016697588</v>
       </c>
       <c r="L12">
-        <v>-0.0041781360915643</v>
+        <v>-0.157627641941942</v>
       </c>
       <c r="M12">
-        <v>0.0083354342609581</v>
+        <v>0.874116930181348</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>5.35422249707964</v>
       </c>
       <c r="O12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P12" t="s">
         <v>43</v>
@@ -1400,19 +1397,19 @@
         <v>5554501</v>
       </c>
       <c r="S12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1423,46 +1420,46 @@
         <v>35</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="s">
         <v>36</v>
       </c>
       <c r="F13">
-        <v>0.277133918162159</v>
+        <v>0.412797527059495</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0175438596491228</v>
       </c>
       <c r="H13">
-        <v>0.9655172413793101</v>
+        <v>0.789473684210526</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>5.605</v>
+        <v>0.34</v>
       </c>
       <c r="K13">
-        <v>0.109476088109662</v>
+        <v>-0.0016955645939788</v>
       </c>
       <c r="L13">
-        <v>-0.48731902569897</v>
+        <v>-0.0243674565880219</v>
       </c>
       <c r="M13">
-        <v>0.737224528947353</v>
+        <v>0.0118311080348195</v>
       </c>
       <c r="N13">
-        <v>1.95318622853992</v>
+        <v>-0.498695468817314</v>
       </c>
       <c r="O13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q13">
         <v>1811782</v>
@@ -1471,19 +1468,19 @@
         <v>5554501</v>
       </c>
       <c r="S13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1497,43 +1494,43 @@
         <v>10</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="s">
         <v>36</v>
       </c>
       <c r="F14">
-        <v>0.037695108071502</v>
+        <v>0.799025085692802</v>
       </c>
       <c r="G14">
-        <v>0.0344827586206897</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>0.844827586206897</v>
+        <v>0.9655172413793101</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3885</v>
+        <v>6.28</v>
       </c>
       <c r="K14">
-        <v>-0.032461323238973</v>
+        <v>0.0428925612389964</v>
       </c>
       <c r="L14">
-        <v>-0.06782062938216871</v>
+        <v>-0.0420800270001774</v>
       </c>
       <c r="M14">
-        <v>-0.0022055407626543</v>
+        <v>0.09994920634797511</v>
       </c>
       <c r="N14">
-        <v>-8.35555295726461</v>
+        <v>0.683002567499942</v>
       </c>
       <c r="O14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q14">
         <v>1811782</v>
@@ -1542,19 +1539,19 @@
         <v>5554501</v>
       </c>
       <c r="S14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V14" t="s">
+        <v>56</v>
+      </c>
+      <c r="W14" t="s">
         <v>57</v>
-      </c>
-      <c r="W14" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1574,37 +1571,37 @@
         <v>36</v>
       </c>
       <c r="F15">
-        <v>0.455518475775764</v>
+        <v>0.992227725119849</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.982300884955752</v>
+        <v>0.364406779661017</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.43</v>
+        <v>0.019</v>
       </c>
       <c r="K15">
-        <v>-0.0139942528735633</v>
+        <v>-0.0006668188041989</v>
       </c>
       <c r="L15">
-        <v>-0.0946109986101412</v>
+        <v>-0.0011992013883341</v>
       </c>
       <c r="M15">
-        <v>0.07287777353390031</v>
+        <v>-0.0002496582365003</v>
       </c>
       <c r="N15">
-        <v>-0.217640013585743</v>
+        <v>-3.50957265367893</v>
       </c>
       <c r="O15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P15" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="Q15">
         <v>1811782</v>
@@ -1613,19 +1610,19 @@
         <v>5554501</v>
       </c>
       <c r="S15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1639,43 +1636,43 @@
         <v>10</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="s">
         <v>36</v>
       </c>
       <c r="F16">
-        <v>0.999721640139457</v>
+        <v>0.999652508499112</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.008474576271186401</v>
       </c>
       <c r="H16">
-        <v>0.355932203389831</v>
+        <v>0.771186440677966</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
-        <v>0.019</v>
+        <v>450</v>
       </c>
       <c r="K16">
-        <v>-0.0010030897165634</v>
+        <v>-41.1289915966387</v>
       </c>
       <c r="L16">
-        <v>-0.0015014454396324</v>
+        <v>-65.5019471632625</v>
       </c>
       <c r="M16">
-        <v>-0.000503552262792</v>
+        <v>-21.736243371685</v>
       </c>
       <c r="N16">
-        <v>-5.27941956086033</v>
+        <v>-9.13977591036415</v>
       </c>
       <c r="O16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P16" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Q16">
         <v>1811782</v>
@@ -1684,19 +1681,19 @@
         <v>5554501</v>
       </c>
       <c r="S16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1713,40 +1710,40 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F17">
-        <v>0.999971706018539</v>
+        <v>0.114349018465275</v>
       </c>
       <c r="G17">
-        <v>0.008474576271186401</v>
+        <v>0.63963963963964</v>
       </c>
       <c r="H17">
-        <v>0.76271186440678</v>
+        <v>0.369369369369369</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>510</v>
+        <v>0.005</v>
       </c>
       <c r="K17">
-        <v>-56.1923076923077</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>-80.83827566156489</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>-31.6953366578234</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>-11.0180995475113</v>
+        <v>0</v>
       </c>
       <c r="O17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P17" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="Q17">
         <v>1811782</v>
@@ -1755,19 +1752,19 @@
         <v>5554501</v>
       </c>
       <c r="S17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1784,28 +1781,28 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F18">
-        <v>0.0114267148048633</v>
+        <v>0.9777664347266291</v>
       </c>
       <c r="G18">
-        <v>0.666666666666667</v>
+        <v>0.338983050847458</v>
       </c>
       <c r="H18">
-        <v>0.342342342342342</v>
+        <v>0.220338983050847</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>-0.00049248550324</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1814,10 +1811,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P18" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="Q18">
         <v>1811782</v>
@@ -1826,19 +1823,19 @@
         <v>5554501</v>
       </c>
       <c r="S18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1852,31 +1849,31 @@
         <v>10</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F19">
-        <v>0.8595148236032411</v>
+        <v>0.949025760423568</v>
       </c>
       <c r="G19">
-        <v>0.279661016949153</v>
+        <v>0.271186440677966</v>
       </c>
       <c r="H19">
-        <v>0.228813559322034</v>
+        <v>0.610169491525424</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.0045</v>
+        <v>0.044</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>-0.0003262084236418</v>
+        <v>-0.0021992686731093</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1885,10 +1882,10 @@
         <v>0</v>
       </c>
       <c r="O19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P19" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Q19">
         <v>1811782</v>
@@ -1897,19 +1894,19 @@
         <v>5554501</v>
       </c>
       <c r="S19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1926,40 +1923,40 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F20">
-        <v>0.589907474956591</v>
+        <v>0.0583573127038</v>
       </c>
       <c r="G20">
-        <v>0.245762711864407</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>0.652542372881356</v>
+        <v>0.637931034482759</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.08699999999999999</v>
+        <v>7.1</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>-0.0093488841579796</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>-0.0234549686479243</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.0005087488391792</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>-0.131674424760277</v>
       </c>
       <c r="O20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P20" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="Q20">
         <v>1811782</v>
@@ -1968,19 +1965,16 @@
         <v>5554501</v>
       </c>
       <c r="S20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V20" t="s">
-        <v>57</v>
-      </c>
-      <c r="W20" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1997,40 +1991,40 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F21">
-        <v>0.06835990221140099</v>
+        <v>0.7732466991947859</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.09322033898305079</v>
       </c>
       <c r="H21">
-        <v>0.594827586206897</v>
+        <v>0.8050847457627121</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
-        <v>7.09</v>
+        <v>0.1025</v>
       </c>
       <c r="K21">
-        <v>-0.0081640742047511</v>
+        <v>-0.0002908633435125</v>
       </c>
       <c r="L21">
-        <v>-0.0200686813186814</v>
+        <v>-0.0047427874074652</v>
       </c>
       <c r="M21">
-        <v>0.001635529237805</v>
+        <v>0.001248027267235</v>
       </c>
       <c r="N21">
-        <v>-0.115149142521172</v>
+        <v>-0.283769115622037</v>
       </c>
       <c r="O21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P21" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="Q21">
         <v>1811782</v>
@@ -2039,15 +2033,18 @@
         <v>5554501</v>
       </c>
       <c r="S21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V21" t="s">
+        <v>56</v>
+      </c>
+      <c r="W21" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2065,40 +2062,40 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F22">
-        <v>0.343631276635374</v>
+        <v>0.986861651927751</v>
       </c>
       <c r="G22">
-        <v>0.09322033898305079</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>0.813559322033898</v>
+        <v>0.754237288135593</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.12275</v>
+        <v>0.755</v>
       </c>
       <c r="K22">
-        <v>0.0007507751294757</v>
+        <v>-0.0198675165313096</v>
       </c>
       <c r="L22">
-        <v>-0.0004978824416211</v>
+        <v>-0.0358215146665528</v>
       </c>
       <c r="M22">
-        <v>0.0028997152326732</v>
+        <v>-0.0050171703296703</v>
       </c>
       <c r="N22">
-        <v>0.611629433381497</v>
+        <v>-2.63145914321982</v>
       </c>
       <c r="O22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q22">
         <v>1811782</v>
@@ -2107,19 +2104,19 @@
         <v>5554501</v>
       </c>
       <c r="S22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V22" t="s">
+        <v>56</v>
+      </c>
+      <c r="W22" t="s">
         <v>57</v>
-      </c>
-      <c r="W22" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2139,37 +2136,37 @@
         <v>36</v>
       </c>
       <c r="F23">
-        <v>0.770562099125511</v>
+        <v>0.940946108841897</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.796610169491525</v>
+        <v>0.686440677966102</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.8055</v>
+        <v>0.105</v>
       </c>
       <c r="K23">
-        <v>-0.009983802911609401</v>
+        <v>-0.0018516074923119</v>
       </c>
       <c r="L23">
-        <v>-0.0261338904596406</v>
+        <v>-0.0037457658766061</v>
       </c>
       <c r="M23">
-        <v>0.0100343406593407</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>-1.23945411689751</v>
+        <v>-1.7634357069638</v>
       </c>
       <c r="O23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Q23">
         <v>1811782</v>
@@ -2178,19 +2175,19 @@
         <v>5554501</v>
       </c>
       <c r="S23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V23" t="s">
+        <v>56</v>
+      </c>
+      <c r="W23" t="s">
         <v>57</v>
-      </c>
-      <c r="W23" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2210,34 +2207,34 @@
         <v>36</v>
       </c>
       <c r="F24">
-        <v>0.7462238502205349</v>
+        <v>0.6143535075957089</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.669491525423729</v>
+        <v>0.957627118644068</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.102</v>
+        <v>6.075</v>
       </c>
       <c r="K24">
-        <v>-0.0007308983617762</v>
+        <v>-0.0413195233779797</v>
       </c>
       <c r="L24">
-        <v>-0.002401835037738</v>
+        <v>-0.269118392867305</v>
       </c>
       <c r="M24">
-        <v>0.0011246692737853</v>
+        <v>0.133405947730613</v>
       </c>
       <c r="N24">
-        <v>-0.716567021349288</v>
+        <v>-0.680156763423535</v>
       </c>
       <c r="O24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P24" t="s">
         <v>47</v>
@@ -2249,19 +2246,19 @@
         <v>5554501</v>
       </c>
       <c r="S24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2272,46 +2269,46 @@
         <v>35</v>
       </c>
       <c r="C25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="s">
         <v>36</v>
       </c>
       <c r="F25">
-        <v>0.946516319661618</v>
+        <v>0.0006755638268419</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0229885057471264</v>
       </c>
       <c r="H25">
-        <v>0.949152542372881</v>
+        <v>0.724137931034483</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J25">
-        <v>6.03</v>
+        <v>0.42</v>
       </c>
       <c r="K25">
-        <v>-0.174760765550239</v>
+        <v>-0.0391339285714286</v>
       </c>
       <c r="L25">
-        <v>-0.328323592340092</v>
+        <v>-0.0673129805062016</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>-0.0171938169565166</v>
       </c>
       <c r="N25">
-        <v>-2.89818848342022</v>
+        <v>-9.317602040816331</v>
       </c>
       <c r="O25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P25" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="Q25">
         <v>1811782</v>
@@ -2320,19 +2317,19 @@
         <v>5554501</v>
       </c>
       <c r="S25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2346,40 +2343,40 @@
         <v>15</v>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="s">
         <v>36</v>
       </c>
       <c r="F26">
-        <v>3.85403728320188E-05</v>
+        <v>0.0033096311470269</v>
       </c>
       <c r="G26">
-        <v>0.0222222222222222</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>0.711111111111111</v>
+        <v>0.923529411764706</v>
       </c>
       <c r="I26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>0.4375</v>
+        <v>7.11</v>
       </c>
       <c r="K26">
-        <v>-0.0759315031982942</v>
+        <v>-0.0849806113138686</v>
       </c>
       <c r="L26">
-        <v>-0.109439915201799</v>
+        <v>-0.134289089929246</v>
       </c>
       <c r="M26">
-        <v>-0.0422954193405753</v>
+        <v>-0.0329486479717451</v>
       </c>
       <c r="N26">
-        <v>-17.3557721596101</v>
+        <v>-1.19522660075765</v>
       </c>
       <c r="O26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P26" t="s">
         <v>52</v>
@@ -2391,19 +2388,19 @@
         <v>5554501</v>
       </c>
       <c r="S26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V26" t="s">
+        <v>56</v>
+      </c>
+      <c r="W26" t="s">
         <v>57</v>
-      </c>
-      <c r="W26" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2423,37 +2420,37 @@
         <v>36</v>
       </c>
       <c r="F27">
-        <v>1.84117913104576E-06</v>
+        <v>0.999956492260702</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0.9411764705882349</v>
+        <v>0.310734463276836</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>7.545</v>
+        <v>0.021</v>
       </c>
       <c r="K27">
-        <v>-0.149556414922657</v>
+        <v>-0.0007128220140515</v>
       </c>
       <c r="L27">
-        <v>-0.196179582678056</v>
+        <v>-0.0010150069980842</v>
       </c>
       <c r="M27">
-        <v>-0.0949502769814128</v>
+        <v>-0.0003998357963875</v>
       </c>
       <c r="N27">
-        <v>-1.98219237803389</v>
+        <v>-3.39439054310249</v>
       </c>
       <c r="O27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P27" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="Q27">
         <v>1811782</v>
@@ -2462,19 +2459,19 @@
         <v>5554501</v>
       </c>
       <c r="S27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2494,37 +2491,37 @@
         <v>36</v>
       </c>
       <c r="F28">
-        <v>0.99999969066473</v>
+        <v>0.9996424153900531</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>0.0056497175141242</v>
       </c>
       <c r="H28">
-        <v>0.344632768361582</v>
+        <v>0.76271186440678</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28">
-        <v>0.022</v>
+        <v>510</v>
       </c>
       <c r="K28">
-        <v>-0.0010715132024373</v>
+        <v>-28.3932801732194</v>
       </c>
       <c r="L28">
-        <v>-0.001462950600801</v>
+        <v>-45.9200118545368</v>
       </c>
       <c r="M28">
-        <v>-0.0007205285595939</v>
+        <v>-13.9655956706795</v>
       </c>
       <c r="N28">
-        <v>-4.87051455653351</v>
+        <v>-5.56730983788615</v>
       </c>
       <c r="O28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P28" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Q28">
         <v>1811782</v>
@@ -2533,19 +2530,19 @@
         <v>5554501</v>
       </c>
       <c r="S28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2559,43 +2556,43 @@
         <v>15</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F29">
-        <v>0.994396717189027</v>
+        <v>0.9913967954652581</v>
       </c>
       <c r="G29">
-        <v>0.0056497175141242</v>
+        <v>0.579881656804734</v>
       </c>
       <c r="H29">
-        <v>0.751412429378531</v>
+        <v>0.42603550295858</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
       <c r="J29">
-        <v>510</v>
+        <v>0.005</v>
       </c>
       <c r="K29">
-        <v>-21.6219603448276</v>
+        <v>0</v>
       </c>
       <c r="L29">
-        <v>-39.6489965741049</v>
+        <v>0</v>
       </c>
       <c r="M29">
-        <v>-6.7658949234429</v>
+        <v>0</v>
       </c>
       <c r="N29">
-        <v>-4.23960006761325</v>
+        <v>0</v>
       </c>
       <c r="O29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P29" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Q29">
         <v>1811782</v>
@@ -2604,19 +2601,19 @@
         <v>5554501</v>
       </c>
       <c r="S29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W29" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2633,19 +2630,19 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F30">
-        <v>0.996449289180749</v>
+        <v>0.99851281872696</v>
       </c>
       <c r="G30">
-        <v>0.5647058823529409</v>
+        <v>0.293785310734463</v>
       </c>
       <c r="H30">
-        <v>0.441176470588235</v>
+        <v>0.19774011299435</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J30">
         <v>0.005</v>
@@ -2654,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>-0.000166453613813</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -2663,10 +2660,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P30" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Q30">
         <v>1811782</v>
@@ -2675,19 +2672,19 @@
         <v>5554501</v>
       </c>
       <c r="S30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2704,40 +2701,40 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F31">
-        <v>0.991241307230138</v>
+        <v>0.995909979644525</v>
       </c>
       <c r="G31">
-        <v>0.269461077844311</v>
+        <v>0.265536723163842</v>
       </c>
       <c r="H31">
-        <v>0.215568862275449</v>
+        <v>0.632768361581921</v>
       </c>
       <c r="I31">
         <v>2</v>
       </c>
       <c r="J31">
-        <v>0.005</v>
+        <v>0.1</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>-0.0002293058292282</v>
       </c>
       <c r="L31">
-        <v>-0.0001664268131408</v>
+        <v>-0.0018495596391351</v>
       </c>
       <c r="M31">
         <v>0</v>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>-0.229305829228243</v>
       </c>
       <c r="O31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P31" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Q31">
         <v>1811782</v>
@@ -2746,19 +2743,19 @@
         <v>5554501</v>
       </c>
       <c r="S31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2775,40 +2772,40 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F32">
-        <v>0.9858994336400621</v>
+        <v>0.0001894370948289</v>
       </c>
       <c r="G32">
-        <v>0.239520958083832</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>0.6706586826347301</v>
+        <v>0.5344827586206899</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J32">
-        <v>0.115</v>
+        <v>7.13</v>
       </c>
       <c r="K32">
-        <v>-4.98839114995903E-05</v>
+        <v>-0.0150094196664576</v>
       </c>
       <c r="L32">
-        <v>-0.0021829562961352</v>
+        <v>-0.0223812868490165</v>
       </c>
       <c r="M32">
-        <v>0</v>
+        <v>-0.0083234783425105</v>
       </c>
       <c r="N32">
-        <v>-0.0433773143474698</v>
+        <v>-0.210510794760976</v>
       </c>
       <c r="O32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P32" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="Q32">
         <v>1811782</v>
@@ -2817,19 +2814,16 @@
         <v>5554501</v>
       </c>
       <c r="S32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V32" t="s">
-        <v>57</v>
-      </c>
-      <c r="W32" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2849,37 +2843,37 @@
         <v>36</v>
       </c>
       <c r="F33">
-        <v>0.010975828658413</v>
+        <v>0.993545683624641</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>0.0621468926553672</v>
       </c>
       <c r="H33">
-        <v>0.537142857142857</v>
+        <v>0.830508474576271</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33">
-        <v>7.13</v>
+        <v>0.133</v>
       </c>
       <c r="K33">
-        <v>-0.0100022820629849</v>
+        <v>-0.0020107182385959</v>
       </c>
       <c r="L33">
-        <v>-0.0177307118706766</v>
+        <v>-0.004751747352701</v>
       </c>
       <c r="M33">
-        <v>-0.0028561187903539</v>
+        <v>-0.0003955089445593</v>
       </c>
       <c r="N33">
-        <v>-0.140284460911429</v>
+        <v>-1.51181822450822</v>
       </c>
       <c r="O33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q33">
         <v>1811782</v>
@@ -2888,15 +2882,18 @@
         <v>5554501</v>
       </c>
       <c r="S33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V33" t="s">
+        <v>56</v>
+      </c>
+      <c r="W33" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2914,40 +2911,40 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F34">
-        <v>0.993802964493437</v>
+        <v>0.964162666586812</v>
       </c>
       <c r="G34">
-        <v>0.0621468926553672</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>0.84180790960452</v>
+        <v>0.734463276836158</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>0.144</v>
+        <v>0.83</v>
       </c>
       <c r="K34">
-        <v>-0.0018199665151142</v>
+        <v>-0.0100098973958833</v>
       </c>
       <c r="L34">
-        <v>-0.0043024207852837</v>
+        <v>-0.0206981522516453</v>
       </c>
       <c r="M34">
-        <v>-0.0003745503562463</v>
+        <v>-0.0005240515627563</v>
       </c>
       <c r="N34">
-        <v>-1.26386563549603</v>
+        <v>-1.20601173444377</v>
       </c>
       <c r="O34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P34" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="Q34">
         <v>1811782</v>
@@ -2956,19 +2953,19 @@
         <v>5554501</v>
       </c>
       <c r="S34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V34" t="s">
+        <v>56</v>
+      </c>
+      <c r="W34" t="s">
         <v>57</v>
-      </c>
-      <c r="W34" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2982,43 +2979,43 @@
         <v>15</v>
       </c>
       <c r="D35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" t="s">
         <v>36</v>
       </c>
       <c r="F35">
-        <v>0.943140123827505</v>
+        <v>0.0363986899642113</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0.740112994350282</v>
+        <v>0.598870056497175</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0.88</v>
+        <v>0.1</v>
       </c>
       <c r="K35">
-        <v>-0.009996589387540999</v>
+        <v>0.0015438356782106</v>
       </c>
       <c r="L35">
-        <v>-0.0201257334207973</v>
+        <v>9.21700335090642E-05</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>0.0028801803890015</v>
       </c>
       <c r="N35">
-        <v>-1.13597606676603</v>
+        <v>1.54383567821068</v>
       </c>
       <c r="O35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P35" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Q35">
         <v>1811782</v>
@@ -3027,19 +3024,19 @@
         <v>5554501</v>
       </c>
       <c r="S35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V35" t="s">
+        <v>56</v>
+      </c>
+      <c r="W35" t="s">
         <v>57</v>
-      </c>
-      <c r="W35" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3053,40 +3050,40 @@
         <v>15</v>
       </c>
       <c r="D36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" t="s">
         <v>36</v>
       </c>
       <c r="F36">
-        <v>0.073672999532694</v>
+        <v>0.962843909607707</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0.615819209039548</v>
+        <v>0.9209039548022599</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>0.099</v>
+        <v>6.41</v>
       </c>
       <c r="K36">
-        <v>0.0013365952453058</v>
+        <v>-0.0990579365663016</v>
       </c>
       <c r="L36">
-        <v>-0.0001418568869408</v>
+        <v>-0.236771249456182</v>
       </c>
       <c r="M36">
-        <v>0.0026265838502568</v>
+        <v>-0.0181887534504438</v>
       </c>
       <c r="N36">
-        <v>1.35009620737967</v>
+        <v>-1.54536562505931</v>
       </c>
       <c r="O36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P36" t="s">
         <v>44</v>
@@ -3098,90 +3095,19 @@
         <v>5554501</v>
       </c>
       <c r="S36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W36" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23">
-      <c r="A37" t="s">
-        <v>23</v>
-      </c>
-      <c r="B37" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37">
-        <v>15</v>
-      </c>
-      <c r="D37" t="b">
-        <v>1</v>
-      </c>
-      <c r="E37" t="s">
-        <v>36</v>
-      </c>
-      <c r="F37">
-        <v>0.997512800526755</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>0.9209039548022599</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>6.17</v>
-      </c>
-      <c r="K37">
-        <v>-0.16083843956044</v>
-      </c>
-      <c r="L37">
-        <v>-0.292587623732891</v>
-      </c>
-      <c r="M37">
-        <v>-0.0648313955100569</v>
-      </c>
-      <c r="N37">
-        <v>-2.60678184052576</v>
-      </c>
-      <c r="O37" t="s">
-        <v>40</v>
-      </c>
-      <c r="P37" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q37">
-        <v>1811782</v>
-      </c>
-      <c r="R37">
-        <v>5554501</v>
-      </c>
-      <c r="S37" t="s">
-        <v>54</v>
-      </c>
-      <c r="T37" t="s">
-        <v>55</v>
-      </c>
-      <c r="U37" t="s">
-        <v>56</v>
-      </c>
-      <c r="V37" t="s">
-        <v>57</v>
-      </c>
-      <c r="W37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
